--- a/Med_table.xlsx
+++ b/Med_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d1063\University\中研院實習\4 資料庫\Excel匯入mssql with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D020CA-A8A7-46A9-AF92-94D3B099F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B474C24-970B-4980-97AA-1D7E5D2C0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="10190" windowHeight="9060" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllMed" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="234">
   <si>
     <t>甘草</t>
   </si>
@@ -773,6 +773,26 @@
   </si>
   <si>
     <t>甘草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x standar_foreign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x med_foreign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x source_foreign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x mssql_duplicate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="203" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1455,7 +1475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="203" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="159.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1477,7 +1497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="348" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="261" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1488,7 +1508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="188.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1499,7 +1519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1510,7 +1530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1521,7 +1541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1554,7 +1574,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1565,7 +1585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="130.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1576,7 +1596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="130.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1587,7 +1607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="203" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="232" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="145" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1620,7 +1640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="333.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="261" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1631,7 +1651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="333.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="261" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1642,7 +1662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="333.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="261" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1653,7 +1673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1675,7 +1695,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1813,9 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1810,13 +1833,16 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1826,6 +1852,9 @@
       </c>
       <c r="E5" s="1">
         <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -1836,13 +1865,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1878,18 +1910,103 @@
       <c r="E8" s="1">
         <v>23</v>
       </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>

--- a/Med_table.xlsx
+++ b/Med_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d1063\University\中研院實習\4 資料庫\Excel匯入mssql with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0E822-8BF2-487B-9D06-DF0CA42276AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57CB5D4-6A00-43C6-A020-0C01FDC5CDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="367">
   <si>
     <t>甘草</t>
   </si>
@@ -568,83 +568,6 @@
   <si>
     <t>SS_ch_mobileC</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本品為豆科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Leguminosae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DFKai-SB"/>
-        <family val="4"/>
-      </rPr>
-      <t>植物甘草</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Glycyrrhiza uralensis Fisch.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DFKai-SB"/>
-        <family val="4"/>
-      </rPr>
-      <t>、脹果甘草</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Glycyrrhiza inflata Batalin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DFKai-SB"/>
-        <family val="4"/>
-      </rPr>
-      <t>或光果甘草</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Glycyrrhiza glabra L.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DFKai-SB"/>
-        <family val="4"/>
-      </rPr>
-      <t>之乾燥根及根莖。</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2513,6 +2436,97 @@
       <t>種標準品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本品為豆科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Leguminosae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DFKai-SB"/>
+        <family val="4"/>
+      </rPr>
+      <t>植物甘草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Glycyrrhiza uralensis Fisch.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DFKai-SB"/>
+        <family val="4"/>
+      </rPr>
+      <t>、脹果甘草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Glycyrrhiza inflata Batalin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DFKai-SB"/>
+        <family val="4"/>
+      </rPr>
+      <t>或光果甘草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Glycyrrhiza glabra L.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DFKai-SB"/>
+        <family val="4"/>
+      </rPr>
+      <t>之乾燥根及根莖。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光果甘草</t>
+  </si>
+  <si>
+    <t>脹果甘草</t>
+  </si>
+  <si>
+    <t>植物甘草</t>
   </si>
 </sst>
 </file>
@@ -3205,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O6"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3251,7 +3265,7 @@
         <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M1" t="s">
         <v>36</v>
@@ -3277,13 +3291,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -3323,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
@@ -3360,22 +3374,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>15</v>
@@ -3406,22 +3420,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>20</v>
@@ -3461,12 +3475,12 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -3533,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="D2" s="41"/>
     </row>
@@ -3545,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>43</v>
@@ -3557,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>44</v>
@@ -3569,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>45</v>
@@ -3581,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>46</v>
@@ -3593,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>47</v>
@@ -3617,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>42</v>
@@ -3629,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>50</v>
@@ -3641,7 +3655,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>51</v>
@@ -3653,10 +3667,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="D12" s="14"/>
     </row>
@@ -3665,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>52</v>
@@ -3677,7 +3691,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>53</v>
@@ -3704,7 +3718,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="14"/>
     </row>
@@ -3713,7 +3727,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>56</v>
@@ -3725,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>57</v>
@@ -3737,7 +3751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>58</v>
@@ -3749,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>59</v>
@@ -3761,10 +3775,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -3807,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13006E8D-24DF-405A-9FA6-BEAC910259A5}">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="T18" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3818,7 +3832,7 @@
     <col min="1" max="26" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1">
+    <row r="1" spans="1:31" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3835,7 +3849,7 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
         <v>63</v>
@@ -3850,7 +3864,7 @@
         <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L1" t="s">
         <v>67</v>
@@ -3883,19 +3897,19 @@
         <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W1" t="s">
         <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y1" t="s">
         <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA1" t="s">
         <v>166</v>
@@ -3909,8 +3923,11 @@
       <c r="AD1" t="s">
         <v>79</v>
       </c>
+      <c r="AE1" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="202" thickBot="1">
+    <row r="2" spans="1:31" ht="202" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3930,37 +3947,37 @@
         <v>101001001</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>24</v>
@@ -3975,7 +3992,7 @@
         <v>24</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>92</v>
@@ -4001,8 +4018,11 @@
       <c r="AD2" s="11">
         <v>5</v>
       </c>
+      <c r="AE2" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="372.5" thickBot="1">
+    <row r="3" spans="1:31" ht="372.5" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -4022,34 +4042,34 @@
         <v>101002002</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>82</v>
@@ -4067,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>83</v>
@@ -4093,8 +4113,11 @@
       <c r="AD3" s="11">
         <v>20</v>
       </c>
+      <c r="AE3" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="272.5" thickBot="1">
+    <row r="4" spans="1:31" ht="272.5" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -4114,25 +4137,25 @@
         <v>101003003</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>87</v>
@@ -4165,7 +4188,7 @@
         <v>91</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y4" s="26" t="s">
         <v>92</v>
@@ -4185,8 +4208,11 @@
       <c r="AD4" s="11">
         <v>10</v>
       </c>
+      <c r="AE4" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="306.5" thickBot="1">
+    <row r="5" spans="1:31" ht="306.5" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -4206,28 +4232,28 @@
         <v>101003004</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>88</v>
@@ -4257,7 +4283,7 @@
         <v>91</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y5" s="26" t="s">
         <v>92</v>
@@ -4277,8 +4303,11 @@
       <c r="AD5" s="11">
         <v>10</v>
       </c>
+      <c r="AE5" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="264" thickBot="1">
+    <row r="6" spans="1:31" ht="264" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -4298,25 +4327,25 @@
         <v>101003005</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>87</v>
@@ -4349,7 +4378,7 @@
         <v>91</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y6" s="26" t="s">
         <v>92</v>
@@ -4369,8 +4398,11 @@
       <c r="AD6" s="11">
         <v>10</v>
       </c>
+      <c r="AE6" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="264" thickBot="1">
+    <row r="7" spans="1:31" ht="264" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -4390,25 +4422,25 @@
         <v>101003006</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" s="28" t="s">
         <v>229</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>230</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>87</v>
@@ -4441,7 +4473,7 @@
         <v>91</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y7" s="26" t="s">
         <v>92</v>
@@ -4461,8 +4493,11 @@
       <c r="AD7" s="11">
         <v>10</v>
       </c>
+      <c r="AE7" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="264" thickBot="1">
+    <row r="8" spans="1:31" ht="264" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>101003007</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>24</v>
@@ -4494,13 +4529,13 @@
         <v>24</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>87</v>
@@ -4533,7 +4568,7 @@
         <v>91</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y8" s="26" t="s">
         <v>92</v>
@@ -4553,8 +4588,11 @@
       <c r="AD8" s="11">
         <v>10</v>
       </c>
+      <c r="AE8" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="264" thickBot="1">
+    <row r="9" spans="1:31" ht="264" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4612,7 @@
         <v>101003008</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>24</v>
@@ -4586,13 +4624,13 @@
         <v>24</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>87</v>
@@ -4625,7 +4663,7 @@
         <v>91</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y9" s="26" t="s">
         <v>92</v>
@@ -4645,8 +4683,11 @@
       <c r="AD9" s="11">
         <v>10</v>
       </c>
+      <c r="AE9" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" ht="326" thickBot="1">
+    <row r="10" spans="1:31" ht="326" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
@@ -4666,25 +4707,25 @@
         <v>101004009</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>98</v>
@@ -4711,7 +4752,7 @@
         <v>30</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>101</v>
@@ -4737,8 +4778,11 @@
       <c r="AD10" s="11">
         <v>20</v>
       </c>
+      <c r="AE10" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" ht="289.5" thickBot="1">
+    <row r="11" spans="1:31" ht="289.5" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -4758,25 +4802,25 @@
         <v>101005010</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>104</v>
@@ -4809,7 +4853,7 @@
         <v>91</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y11" s="15" t="s">
         <v>108</v>
@@ -4829,8 +4873,11 @@
       <c r="AD11" s="11">
         <v>10</v>
       </c>
+      <c r="AE11" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" ht="279.5" thickBot="1">
+    <row r="12" spans="1:31" ht="279.5" thickBot="1">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4897,7 @@
         <v>101006011</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>24</v>
@@ -4865,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>109</v>
@@ -4901,7 +4948,7 @@
         <v>84</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y12" s="25" t="s">
         <v>115</v>
@@ -4913,16 +4960,19 @@
         <v>24</v>
       </c>
       <c r="AB12" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC12" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="AC12" s="31" t="s">
-        <v>245</v>
       </c>
       <c r="AD12" s="11">
         <v>10</v>
       </c>
+      <c r="AE12" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" ht="155.5" thickBot="1">
+    <row r="13" spans="1:31" ht="155.5" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -4942,37 +4992,37 @@
         <v>101007012</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="O13" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="P13" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="Q13" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="R13" s="11">
         <v>250</v>
@@ -4987,10 +5037,10 @@
         <v>35</v>
       </c>
       <c r="V13" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W13" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="W13" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>84</v>
@@ -4999,10 +5049,10 @@
         <v>84</v>
       </c>
       <c r="Z13" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA13" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB13" s="11">
         <v>250</v>
@@ -5013,8 +5063,11 @@
       <c r="AD13" s="11">
         <v>20</v>
       </c>
+      <c r="AE13" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" ht="310.5" thickBot="1">
+    <row r="14" spans="1:31" ht="310.5" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>49</v>
       </c>
@@ -5034,37 +5087,37 @@
         <v>102008013</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="M14" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="N14" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="O14" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>24</v>
@@ -5079,10 +5132,10 @@
         <v>24</v>
       </c>
       <c r="V14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="W14" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>80</v>
@@ -5105,8 +5158,11 @@
       <c r="AD14" s="11">
         <v>10</v>
       </c>
+      <c r="AE14" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" ht="279.5" thickBot="1">
+    <row r="15" spans="1:31" ht="279.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -5126,37 +5182,37 @@
         <v>102009014</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="M15" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="N15" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>120</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R15" s="11">
         <v>150</v>
@@ -5171,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W15" s="15" t="s">
         <v>108</v>
@@ -5197,8 +5253,11 @@
       <c r="AD15" s="11">
         <v>10</v>
       </c>
+      <c r="AE15" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" ht="409.6" thickBot="1">
+    <row r="16" spans="1:31" ht="409.6" thickBot="1">
       <c r="A16" s="15" t="s">
         <v>49</v>
       </c>
@@ -5218,25 +5277,25 @@
         <v>102010015</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="M16" s="33" t="s">
         <v>275</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>124</v>
@@ -5269,7 +5328,7 @@
         <v>91</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y16" s="15" t="s">
         <v>127</v>
@@ -5289,8 +5348,11 @@
       <c r="AD16" s="11">
         <v>10</v>
       </c>
+      <c r="AE16" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" ht="409.6" thickBot="1">
+    <row r="17" spans="1:31" ht="409.6" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>49</v>
       </c>
@@ -5310,7 +5372,7 @@
         <v>102010016</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>24</v>
@@ -5322,16 +5384,16 @@
         <v>24</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="M17" s="33" t="s">
+      <c r="N17" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>125</v>
@@ -5361,7 +5423,7 @@
         <v>91</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y17" s="15" t="s">
         <v>127</v>
@@ -5381,8 +5443,11 @@
       <c r="AD17" s="11">
         <v>10</v>
       </c>
+      <c r="AE17" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" ht="409.6" thickBot="1">
+    <row r="18" spans="1:31" ht="409.6" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>49</v>
       </c>
@@ -5402,7 +5467,7 @@
         <v>102010017</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -5414,16 +5479,16 @@
         <v>24</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M18" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="M18" s="33" t="s">
+      <c r="N18" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>125</v>
@@ -5453,7 +5518,7 @@
         <v>91</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y18" s="15" t="s">
         <v>127</v>
@@ -5473,8 +5538,11 @@
       <c r="AD18" s="11">
         <v>10</v>
       </c>
+      <c r="AE18" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" ht="124.5" thickBot="1">
+    <row r="19" spans="1:31" ht="124.5" thickBot="1">
       <c r="A19" s="15" t="s">
         <v>49</v>
       </c>
@@ -5494,25 +5562,25 @@
         <v>102011018</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="M19" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>288</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>130</v>
@@ -5539,13 +5607,13 @@
         <v>35</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W19" s="15" t="s">
         <v>108</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y19" s="15" t="s">
         <v>91</v>
@@ -5566,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="217.5" thickBot="1">
+    <row r="20" spans="1:31" ht="217.5" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
@@ -5586,7 +5654,7 @@
         <v>102012019</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -5601,10 +5669,10 @@
         <v>80</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>135</v>
@@ -5631,7 +5699,7 @@
         <v>30</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W20" s="15" t="s">
         <v>92</v>
@@ -5657,8 +5725,11 @@
       <c r="AD20" s="11">
         <v>10</v>
       </c>
+      <c r="AE20" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" ht="233" thickBot="1">
+    <row r="21" spans="1:31" ht="233" thickBot="1">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -5678,25 +5749,25 @@
         <v>102013020</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M21" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>87</v>
@@ -5729,7 +5800,7 @@
         <v>91</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>108</v>
@@ -5749,8 +5820,11 @@
       <c r="AD21" s="11">
         <v>10</v>
       </c>
+      <c r="AE21" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" ht="171" thickBot="1">
+    <row r="22" spans="1:31" ht="171" thickBot="1">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -5770,7 +5844,7 @@
         <v>102014021</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>24</v>
@@ -5782,25 +5856,25 @@
         <v>24</v>
       </c>
       <c r="K22" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M22" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="M22" s="33" t="s">
+      <c r="N22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="O22" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="Q22" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="R22" s="11">
         <v>250</v>
@@ -5815,10 +5889,10 @@
         <v>35</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>84</v>
@@ -5827,10 +5901,10 @@
         <v>91</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB22" s="11">
         <v>280</v>
@@ -5841,10 +5915,13 @@
       <c r="AD22" s="11">
         <v>20</v>
       </c>
+      <c r="AE22" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="202" thickBot="1">
+    <row r="23" spans="1:31" ht="202" thickBot="1">
       <c r="A23" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="34">
         <v>3</v>
@@ -5862,37 +5939,37 @@
         <v>102015022</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="35" t="s">
+      <c r="L23" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="N23" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="O23" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="P23" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="Q23" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>307</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>24</v>
@@ -5907,10 +5984,10 @@
         <v>24</v>
       </c>
       <c r="V23" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W23" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>84</v>
@@ -5933,10 +6010,13 @@
       <c r="AD23" s="11">
         <v>10</v>
       </c>
+      <c r="AE23" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" ht="202" thickBot="1">
+    <row r="24" spans="1:31" ht="202" thickBot="1">
       <c r="A24" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="34">
         <v>3</v>
@@ -5954,25 +6034,25 @@
         <v>102016023</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="M24" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>87</v>
@@ -6005,10 +6085,10 @@
         <v>80</v>
       </c>
       <c r="X24" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y24" s="25" t="s">
         <v>313</v>
-      </c>
-      <c r="Y24" s="25" t="s">
-        <v>314</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>24</v>
@@ -6025,10 +6105,13 @@
       <c r="AD24" s="11">
         <v>2</v>
       </c>
+      <c r="AE24" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" ht="409.6" thickBot="1">
+    <row r="25" spans="1:31" ht="409.6" thickBot="1">
       <c r="A25" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="34">
         <v>3</v>
@@ -6046,25 +6129,25 @@
         <v>102017024</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>318</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>157</v>
@@ -6091,13 +6174,13 @@
         <v>24</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W25" s="25" t="s">
         <v>161</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y25" s="25" t="s">
         <v>162</v>
@@ -6117,10 +6200,13 @@
       <c r="AD25" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="AE25" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" ht="204.5" thickBot="1">
+    <row r="26" spans="1:31" ht="204.5" thickBot="1">
       <c r="A26" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="34">
         <v>3</v>
@@ -6138,7 +6224,7 @@
         <v>102018025</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>24</v>
@@ -6153,10 +6239,10 @@
         <v>80</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>87</v>
@@ -6189,7 +6275,7 @@
         <v>91</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y26" s="26" t="s">
         <v>92</v>
@@ -6209,10 +6295,13 @@
       <c r="AD26" s="11">
         <v>10</v>
       </c>
+      <c r="AE26" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" ht="187.5" thickBot="1">
+    <row r="27" spans="1:31" ht="187.5" thickBot="1">
       <c r="A27" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="34">
         <v>3</v>
@@ -6230,7 +6319,7 @@
         <v>102019026</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>24</v>
@@ -6245,10 +6334,10 @@
         <v>86</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>151</v>
@@ -6275,7 +6364,7 @@
         <v>30</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W27" s="26" t="s">
         <v>152</v>
@@ -6301,10 +6390,13 @@
       <c r="AD27" s="11">
         <v>10</v>
       </c>
+      <c r="AE27" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" ht="238.5" thickBot="1">
+    <row r="28" spans="1:31" ht="238.5" thickBot="1">
       <c r="A28" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="34">
         <v>3</v>
@@ -6322,25 +6414,25 @@
         <v>102020027</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="L28" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>104</v>
@@ -6393,10 +6485,13 @@
       <c r="AD28" s="11">
         <v>10</v>
       </c>
+      <c r="AE28" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" ht="155.5" thickBot="1">
+    <row r="29" spans="1:31" ht="155.5" thickBot="1">
       <c r="A29" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="34">
         <v>3</v>
@@ -6414,37 +6509,37 @@
         <v>102021028</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="R29" s="11">
         <v>320</v>
@@ -6459,10 +6554,10 @@
         <v>35</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X29" s="11" t="s">
         <v>84</v>
@@ -6471,10 +6566,10 @@
         <v>84</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB29" s="11">
         <v>320</v>
@@ -6484,6 +6579,9 @@
       </c>
       <c r="AD29" s="15">
         <v>20</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6495,10 +6593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DE422-8EA2-4BDE-9730-9DAC1D8E446B}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="S1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6506,7 +6604,7 @@
     <col min="1" max="21" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -6526,7 +6624,7 @@
         <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
         <v>67</v>
@@ -6559,13 +6657,13 @@
         <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S1" t="s">
         <v>75</v>
       </c>
       <c r="T1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U1" t="s">
         <v>76</v>
@@ -6579,43 +6677,46 @@
       <c r="X1" t="s">
         <v>79</v>
       </c>
+      <c r="Y1" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>341</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>81</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>82</v>
@@ -6633,7 +6734,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>83</v>
@@ -6654,7 +6755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="44" t="s">
         <v>85</v>
       </c>
@@ -6662,25 +6763,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>342</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>343</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>87</v>
@@ -6713,7 +6814,7 @@
         <v>91</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>92</v>
@@ -6728,9 +6829,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="17">
         <v>3</v>
@@ -6748,13 +6849,13 @@
         <v>24</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>87</v>
@@ -6787,7 +6888,7 @@
         <v>91</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U4" s="45" t="s">
         <v>92</v>
@@ -6802,7 +6903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
@@ -6822,13 +6923,13 @@
         <v>24</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>87</v>
@@ -6861,7 +6962,7 @@
         <v>91</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U5" s="45" t="s">
         <v>92</v>
@@ -6876,33 +6977,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="17">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>348</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>87</v>
@@ -6935,7 +7036,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U6" s="45" t="s">
         <v>92</v>
@@ -6950,7 +7051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
@@ -6970,13 +7071,13 @@
         <v>24</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>87</v>
@@ -7009,7 +7110,7 @@
         <v>91</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U7" s="45" t="s">
         <v>92</v>
@@ -7024,7 +7125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="17" t="s">
         <v>96</v>
       </c>
@@ -7044,13 +7145,13 @@
         <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>87</v>
@@ -7083,7 +7184,7 @@
         <v>91</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U8" s="45" t="s">
         <v>92</v>
@@ -7098,7 +7199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>97</v>
       </c>
@@ -7118,13 +7219,13 @@
         <v>24</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>98</v>
@@ -7151,7 +7252,7 @@
         <v>30</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>101</v>
@@ -7172,7 +7273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>102</v>
       </c>
@@ -7192,13 +7293,13 @@
         <v>24</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>103</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>104</v>
@@ -7231,7 +7332,7 @@
         <v>91</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U10" s="20" t="s">
         <v>108</v>
@@ -7246,7 +7347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>102</v>
       </c>
@@ -7305,22 +7406,22 @@
         <v>84</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U11" s="29" t="s">
         <v>115</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W11" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X11" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>116</v>
       </c>
@@ -7373,7 +7474,7 @@
         <v>30</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>108</v>
@@ -7394,9 +7495,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" s="17">
         <v>12</v>
@@ -7453,7 +7554,7 @@
         <v>91</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U13" s="23" t="s">
         <v>127</v>
@@ -7468,7 +7569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>128</v>
       </c>
@@ -7488,7 +7589,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>86</v>
@@ -7521,13 +7622,13 @@
         <v>35</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>108</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>91</v>
@@ -7542,7 +7643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>134</v>
       </c>
@@ -7568,7 +7669,7 @@
         <v>86</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>135</v>
@@ -7595,13 +7696,13 @@
         <v>30</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>92</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>91</v>
@@ -7616,7 +7717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="17" t="s">
         <v>138</v>
       </c>
@@ -7675,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U16" s="20" t="s">
         <v>108</v>
@@ -7749,7 +7850,7 @@
         <v>80</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U17" s="23" t="s">
         <v>108</v>
@@ -7766,13 +7867,13 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B18" s="17">
         <v>17</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>24</v>
@@ -7790,7 +7891,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>157</v>
@@ -7817,13 +7918,13 @@
         <v>24</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S18" s="46" t="s">
         <v>161</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U18" s="46" t="s">
         <v>162</v>
@@ -7864,7 +7965,7 @@
         <v>80</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>87</v>
@@ -7965,7 +8066,7 @@
         <v>30</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S20" s="45" t="s">
         <v>152</v>
